--- a/reports/resnet18_23_no_MMTM/prediction/9/prediction_val_9.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/9/prediction_val_9.xlsx
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
